--- a/Circular barplot.xlsx
+++ b/Circular barplot.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhaoyuguo/Github-database/OHI2021/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69DFFDF4-19FB-334D-BC9B-A7E7EE01D3A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{166A7CB9-4FE1-5041-92D1-29C4ADA91876}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="680" yWindow="1000" windowWidth="27840" windowHeight="15880" xr2:uid="{5C1DA0EF-DDA5-2847-86F3-0A7BFDE74C91}"/>
   </bookViews>
@@ -34,117 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="44">
-  <si>
-    <t>A.1</t>
-  </si>
-  <si>
-    <t>A.2</t>
-  </si>
-  <si>
-    <t>A.3</t>
-  </si>
-  <si>
-    <t>A.4</t>
-  </si>
-  <si>
-    <t>A.5</t>
-  </si>
-  <si>
-    <t>B.1</t>
-  </si>
-  <si>
-    <t>B.2</t>
-  </si>
-  <si>
-    <t>B.3</t>
-  </si>
-  <si>
-    <t>C.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C.3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C.4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C.5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C.6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C.7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C.8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D.1</t>
-  </si>
-  <si>
-    <t>D.2</t>
-  </si>
-  <si>
-    <t>D.3</t>
-  </si>
-  <si>
-    <t>D.4</t>
-  </si>
-  <si>
-    <t>D.5</t>
-  </si>
-  <si>
-    <t>E.1</t>
-  </si>
-  <si>
-    <t>E.2</t>
-  </si>
-  <si>
-    <t>E.3</t>
-  </si>
-  <si>
-    <t>E.4</t>
-  </si>
-  <si>
-    <t>E.5</t>
-  </si>
-  <si>
-    <t>F.1</t>
-  </si>
-  <si>
-    <t>F.2</t>
-  </si>
-  <si>
-    <t>F.3</t>
-  </si>
-  <si>
-    <t>F.4</t>
-  </si>
-  <si>
-    <t>F.5</t>
-  </si>
-  <si>
-    <t>G.1</t>
-  </si>
-  <si>
-    <t>G.2</t>
-  </si>
-  <si>
-    <t>G.3</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="19">
   <si>
     <t>individual</t>
   </si>
@@ -155,31 +45,65 @@
     <t>group</t>
   </si>
   <si>
-    <t>A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>E</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>F</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>G</t>
+    <t>EDI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IDI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CDI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Institutional System</t>
+  </si>
+  <si>
+    <t>Economical System</t>
+  </si>
+  <si>
+    <t>Sociological System</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Technological System</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Human health</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Environmental Health</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Governance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zoonoses</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Food Security</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Antimicrobial Resistance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Climate health</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Earth System</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Animal Health and Ecosystem diversity</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -233,11 +157,8 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -557,400 +478,170 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF03422A-9A81-C54B-98FE-6488CCE32F1F}">
-  <dimension ref="A1:C35"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
+    <col min="1" max="1" width="60" customWidth="1"/>
     <col min="4" max="46" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>36</v>
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1">
-        <v>57.474206896551713</v>
+        <v>17</v>
+      </c>
+      <c r="B2">
+        <v>57.47</v>
       </c>
       <c r="C2" t="s">
-        <v>37</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1">
-        <v>40.681448275862095</v>
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>40.68</v>
       </c>
       <c r="C3" t="s">
-        <v>37</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="1">
-        <v>24.306000000000015</v>
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>24.31</v>
       </c>
       <c r="C4" t="s">
-        <v>37</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>40</v>
+      </c>
+      <c r="C5" t="s">
         <v>3</v>
-      </c>
-      <c r="B5" s="1">
-        <v>39.999586206896566</v>
-      </c>
-      <c r="C5" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="1">
-        <v>39.15206896551723</v>
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>39.15</v>
       </c>
       <c r="C6" t="s">
-        <v>37</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="1">
-        <v>64.453655172413775</v>
+        <v>10</v>
+      </c>
+      <c r="B7">
+        <v>64.45</v>
       </c>
       <c r="C7" t="s">
-        <v>38</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="1">
-        <v>52.098137931034529</v>
+        <v>18</v>
+      </c>
+      <c r="B8">
+        <v>52.1</v>
       </c>
       <c r="C8" t="s">
-        <v>38</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="1">
-        <v>29.46551724137931</v>
+        <v>11</v>
+      </c>
+      <c r="B9">
+        <v>29.47</v>
       </c>
       <c r="C9" t="s">
-        <v>38</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="1">
-        <v>19.956896551724139</v>
+        <v>12</v>
+      </c>
+      <c r="B10">
+        <v>34.56</v>
       </c>
       <c r="C10" t="s">
-        <v>39</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="1">
-        <v>18.96551724137931</v>
+        <v>13</v>
+      </c>
+      <c r="B11">
+        <v>54.42</v>
       </c>
       <c r="C11" t="s">
-        <v>39</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="1">
-        <v>33.239931034482765</v>
+        <v>14</v>
+      </c>
+      <c r="B12">
+        <v>53.38</v>
       </c>
       <c r="C12" t="s">
-        <v>39</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="1">
-        <v>17.827586206896552</v>
+        <v>15</v>
+      </c>
+      <c r="B13">
+        <v>40.03</v>
       </c>
       <c r="C13" t="s">
-        <v>39</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="1">
-        <v>49.482758620689658</v>
+        <v>16</v>
+      </c>
+      <c r="B14">
+        <v>53.39</v>
       </c>
       <c r="C14" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="1">
-        <v>48.793103448275865</v>
-      </c>
-      <c r="C15" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" s="1">
-        <v>37.103448275862071</v>
-      </c>
-      <c r="C16" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="1">
-        <v>46.664275862068962</v>
-      </c>
-      <c r="C17" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" s="1">
-        <v>64.827931034482788</v>
-      </c>
-      <c r="C18" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" s="1">
-        <v>38.688827586206898</v>
-      </c>
-      <c r="C19" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20" s="1">
-        <v>60.935379310344821</v>
-      </c>
-      <c r="C20" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21" s="1">
-        <v>54.228068965517252</v>
-      </c>
-      <c r="C21" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
-        <v>20</v>
-      </c>
-      <c r="B22" s="1">
-        <v>56.403172413793129</v>
-      </c>
-      <c r="C22" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" t="s">
-        <v>21</v>
-      </c>
-      <c r="B23" s="1">
-        <v>57.456344827586243</v>
-      </c>
-      <c r="C23" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" t="s">
-        <v>22</v>
-      </c>
-      <c r="B24" s="1">
-        <v>70.115103448275832</v>
-      </c>
-      <c r="C24" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25" s="1">
-        <v>71.81351724137933</v>
-      </c>
-      <c r="C25" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" s="1">
-        <v>52.470206896551716</v>
-      </c>
-      <c r="C26" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" t="s">
-        <v>25</v>
-      </c>
-      <c r="B27" s="1">
-        <v>15.068137931034491</v>
-      </c>
-      <c r="C27" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" t="s">
-        <v>26</v>
-      </c>
-      <c r="B28" s="1">
-        <v>39.840620689655175</v>
-      </c>
-      <c r="C28" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" t="s">
-        <v>27</v>
-      </c>
-      <c r="B29" s="1">
-        <v>42.990965517241378</v>
-      </c>
-      <c r="C29" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" t="s">
-        <v>28</v>
-      </c>
-      <c r="B30" s="1">
-        <v>41.722275862068962</v>
-      </c>
-      <c r="C30" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" t="s">
-        <v>29</v>
-      </c>
-      <c r="B31" s="1">
-        <v>51.692689655172401</v>
-      </c>
-      <c r="C31" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" t="s">
-        <v>30</v>
-      </c>
-      <c r="B32" s="1">
-        <v>23.915862068965513</v>
-      </c>
-      <c r="C32" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" t="s">
-        <v>31</v>
-      </c>
-      <c r="B33" s="1">
-        <v>35.303724137931042</v>
-      </c>
-      <c r="C33" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" t="s">
-        <v>32</v>
-      </c>
-      <c r="B34" s="1">
-        <v>67.47310344827585</v>
-      </c>
-      <c r="C34" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" t="s">
-        <v>33</v>
-      </c>
-      <c r="B35" s="1">
-        <v>59.01510344827588</v>
-      </c>
-      <c r="C35" t="s">
-        <v>43</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Circular barplot.xlsx
+++ b/Circular barplot.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhaoyuguo/Github-database/OHI2021/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{166A7CB9-4FE1-5041-92D1-29C4ADA91876}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F0A4963-3731-F242-B4F6-F571B46B9D15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="680" yWindow="1000" windowWidth="27840" windowHeight="15880" xr2:uid="{5C1DA0EF-DDA5-2847-86F3-0A7BFDE74C91}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="47">
   <si>
     <t>individual</t>
   </si>
@@ -104,6 +104,115 @@
   </si>
   <si>
     <t>Animal Health and Ecosystem diversity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EAS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Total name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HMH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AHE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EHI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ECOS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TCS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GOV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZON</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FSC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AMR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CLH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A.3</t>
+  </si>
+  <si>
+    <t>A.4</t>
+  </si>
+  <si>
+    <t>A.5</t>
+  </si>
+  <si>
+    <t>B.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -478,169 +587,256 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF03422A-9A81-C54B-98FE-6488CCE32F1F}">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="60" customWidth="1"/>
-    <col min="4" max="46" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="23.6640625" customWidth="1"/>
+    <col min="3" max="3" width="38.83203125" customWidth="1"/>
+    <col min="4" max="4" width="17.33203125" customWidth="1"/>
+    <col min="6" max="48" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" t="s">
         <v>17</v>
       </c>
-      <c r="B2">
+      <c r="D2">
         <v>57.47</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" t="s">
         <v>6</v>
       </c>
-      <c r="B3">
+      <c r="D3">
         <v>40.68</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" t="s">
         <v>7</v>
       </c>
-      <c r="B4">
+      <c r="D4">
         <v>24.31</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" t="s">
         <v>8</v>
       </c>
-      <c r="B5">
+      <c r="D5">
         <v>40</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" t="s">
         <v>9</v>
       </c>
-      <c r="B6">
+      <c r="D6">
         <v>39.15</v>
       </c>
-      <c r="C6" t="s">
+      <c r="E6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" t="s">
         <v>10</v>
       </c>
-      <c r="B7">
+      <c r="D7">
         <v>64.45</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" t="s">
         <v>18</v>
       </c>
-      <c r="B8">
+      <c r="D8">
         <v>52.1</v>
       </c>
-      <c r="C8" t="s">
+      <c r="E8" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" t="s">
         <v>11</v>
       </c>
-      <c r="B9">
+      <c r="D9">
         <v>29.47</v>
       </c>
-      <c r="C9" t="s">
+      <c r="E9" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" t="s">
         <v>12</v>
       </c>
-      <c r="B10">
+      <c r="D10">
         <v>34.56</v>
       </c>
-      <c r="C10" t="s">
+      <c r="E10" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" t="s">
         <v>13</v>
       </c>
-      <c r="B11">
+      <c r="D11">
         <v>54.42</v>
       </c>
-      <c r="C11" t="s">
+      <c r="E11" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" t="s">
         <v>14</v>
       </c>
-      <c r="B12">
+      <c r="D12">
         <v>53.38</v>
       </c>
-      <c r="C12" t="s">
+      <c r="E12" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" t="s">
         <v>15</v>
       </c>
-      <c r="B13">
+      <c r="D13">
         <v>40.03</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E13" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" t="s">
         <v>16</v>
       </c>
-      <c r="B14">
+      <c r="D14">
         <v>53.39</v>
       </c>
-      <c r="C14" t="s">
+      <c r="E14" t="s">
         <v>5</v>
       </c>
     </row>
